--- a/data/ppi.xlsx
+++ b/data/ppi.xlsx
@@ -1,68 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464D662-214B-4D61-9A95-BCBD54B5C5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,24 +47,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,577 +444,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>147.72</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="n">
         <v>146.84</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C32" si="0">(B2/B14-1)*100</f>
-        <v>3.2847998874586892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B3" s="1">
-        <v>146.52000000000001</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2.9872777113938209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B4" s="3" t="n">
+        <v>146.52</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="3" t="n">
         <v>145.97</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2.6584147971024708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="3" t="n">
         <v>145.65</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.0958923314173594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B6" s="1">
-        <v>145.33000000000001</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.0934316824728016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B7" s="3" t="n">
+        <v>145.33</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="3" t="n">
         <v>144.88</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2.4176445638342869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B8" s="1">
-        <v>144.83000000000001</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2.9572758939361732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B9" s="3" t="n">
+        <v>144.83</v>
+      </c>
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="3" t="n">
         <v>144.26</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2.5593630029859149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="3" t="n">
         <v>144.26</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2.326571144843248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="3" t="n">
         <v>143.54</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1.9894841551797438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="3" t="n">
         <v>143.51</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.6071934296233215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="3" t="n">
         <v>142.68</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.98379220043882665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B14" s="1">
-        <v>142.16999999999999</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1.0447761194029903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B15" s="3" t="n">
+        <v>142.17</v>
+      </c>
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B15" s="1">
-        <v>142.27000000000001</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.77206403173253335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B16" s="3" t="n">
+        <v>142.27</v>
+      </c>
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="3" t="n">
         <v>142.19</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1.0805431150920697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="3" t="n">
         <v>142.66</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1.7982017982018039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="C18">
+        <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="3" t="n">
         <v>142.35</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1.8823361007729744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="C19">
+        <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="3" t="n">
         <v>141.46</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.1584668192219816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="C20">
+        <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B20" s="1">
-        <v>140.66999999999999</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.3066172276098067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B21" s="3" t="n">
+        <v>140.67</v>
+      </c>
+      <c r="C21">
+        <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="3" t="n">
         <v>140.66</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.1724088326260595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="C22">
+        <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B22" s="1">
-        <v>140.97999999999999</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>2.3076923076922995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="B23" s="3" t="n">
+        <v>140.98</v>
+      </c>
+      <c r="C23">
+        <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="3" t="n">
         <v>140.74</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>2.6999416228838502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="C24">
+        <f>(B24/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="3" t="n">
         <v>141.24</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>4.7619047619047672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="C25">
+        <f>(B25/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="3" t="n">
         <v>141.29</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>5.7718221290612215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="C26">
+        <f>(B26/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B26" s="1">
-        <v>140.69999999999999</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>6.3974591651542401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="B27" s="3" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="C27">
+        <f>(B27/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="3" t="n">
         <v>141.18</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>7.4020540129326795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="C28">
+        <f>(B28/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B28" s="1">
-        <v>140.66999999999999</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>8.182727062985462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="B29" s="3" t="n">
+        <v>140.67</v>
+      </c>
+      <c r="C29">
+        <f>(B29/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B29" s="1">
-        <v>140.13999999999999</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>8.4590975930655343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="B30" s="3" t="n">
+        <v>140.14</v>
+      </c>
+      <c r="C30">
+        <f>(B30/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="3" t="n">
         <v>139.72</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>8.6385195552445282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="C31">
+        <f>(B31/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="3" t="n">
         <v>139.84</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>9.721459395841503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="C32">
+        <f>(B32/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="3" t="n">
         <v>140.24</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>11.125198098256739</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="C33">
+        <f>(B33/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="3" t="n">
         <v>139.03</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C39" si="1">(B33/B45-1)*100</f>
-        <v>11.046325878594242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="C34">
+        <f>(B34/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B34" s="1">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>11.039484286865452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="B35" s="3" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="C35">
+        <f>(B35/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="3" t="n">
         <v>137.04</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>11.596091205211723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="C36">
+        <f>(B36/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="3" t="n">
         <v>134.82</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>10.508196721311469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="C37">
+        <f>(B37/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B37" s="1">
-        <v>133.58000000000001</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>10.123660346248986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="B38" s="3" t="n">
+        <v>133.58</v>
+      </c>
+      <c r="C38">
+        <f>(B38/B50-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="3" t="n">
         <v>132.24</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>10.20000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="C39">
+        <f>(B39/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B39" s="1">
-        <v>131.44999999999999</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999858</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="B40" s="3" t="n">
+        <v>131.45</v>
+      </c>
+      <c r="C40">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="3" t="n">
         <v>130.03</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="C41">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="3" t="n">
         <v>129.21</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="C42">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B42" s="1">
-        <v>128.61000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="B43" s="3" t="n">
+        <v>128.61</v>
+      </c>
+      <c r="C43">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="3" t="n">
         <v>127.45</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="C44">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="3" t="n">
         <v>126.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="C45">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="3" t="n">
         <v>125.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="C46">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="3" t="n">
         <v>124.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="C47">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="3" t="n">
         <v>122.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="C48">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="3" t="n">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="C49">
+        <f>(B49/B61-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="3" t="n">
         <v>121.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="C50">
+        <f>(B50/B62-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B50">
+      <c r="B51" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="C51">
+        <f>(B51/B63-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B51">
+      <c r="B52" t="n">
         <v>119.5</v>
+      </c>
+      <c r="C52">
+        <f>(B52/B64-1)*100</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/ppi.xlsx
+++ b/data/ppi.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,23 +480,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>147.95</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>147.72</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B3" t="n">
-        <v>146.84</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -505,10 +507,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>146.52</v>
+        <v>45627</v>
+      </c>
+      <c r="B4" t="n">
+        <v>146.84</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -517,10 +519,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>145.97</v>
+        <v>146.52</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -529,10 +531,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>145.65</v>
+        <v>145.97</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -541,10 +543,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>145.33</v>
+        <v>145.65</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -553,10 +555,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>144.88</v>
+        <v>145.33</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -565,10 +567,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>144.83</v>
+        <v>144.88</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -577,10 +579,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>144.26</v>
+        <v>144.83</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -589,7 +591,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>144.26</v>
@@ -601,10 +603,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>143.54</v>
+        <v>144.26</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -613,10 +615,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>143.51</v>
+        <v>143.54</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -625,10 +627,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>142.68</v>
+        <v>143.51</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -637,10 +639,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>142.17</v>
+        <v>142.68</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -649,10 +651,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>142.27</v>
+        <v>142.17</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -661,10 +663,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>142.19</v>
+        <v>142.27</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -673,10 +675,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>142.66</v>
+        <v>142.19</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -685,10 +687,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>142.35</v>
+        <v>142.66</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -697,10 +699,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>141.46</v>
+        <v>142.35</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -709,10 +711,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>140.67</v>
+        <v>141.46</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -721,10 +723,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>140.66</v>
+        <v>140.67</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -733,10 +735,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>140.98</v>
+        <v>140.66</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -745,10 +747,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>140.74</v>
+        <v>140.98</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -757,10 +759,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>141.24</v>
+        <v>140.74</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -769,10 +771,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>141.29</v>
+        <v>141.24</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -781,10 +783,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>140.7</v>
+        <v>141.29</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -793,10 +795,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>141.18</v>
+        <v>140.7</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -805,10 +807,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>140.67</v>
+        <v>141.18</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -817,10 +819,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>140.14</v>
+        <v>140.67</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -829,10 +831,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>139.72</v>
+        <v>140.14</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -841,10 +843,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>139.84</v>
+        <v>139.72</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -853,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>140.24</v>
+        <v>139.84</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -865,10 +867,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>139.03</v>
+        <v>140.24</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -877,10 +879,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>137.8</v>
+        <v>139.03</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -889,10 +891,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>137.04</v>
+        <v>137.8</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -901,10 +903,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>134.82</v>
+        <v>137.04</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -913,10 +915,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>133.58</v>
+        <v>134.82</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -925,10 +927,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>132.24</v>
+        <v>133.58</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -937,10 +939,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>131.45</v>
+        <v>132.24</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -949,10 +951,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>130.03</v>
+        <v>131.45</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -961,10 +963,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>129.21</v>
+        <v>130.03</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -973,10 +975,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>128.61</v>
+        <v>129.21</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -985,10 +987,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>127.45</v>
+        <v>128.61</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -997,10 +999,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>126.2</v>
+        <v>127.45</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1009,10 +1011,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>125.2</v>
+        <v>126.2</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1021,10 +1023,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>124.1</v>
+        <v>125.2</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1033,10 +1035,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>122.8</v>
+        <v>124.1</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1045,10 +1047,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>122</v>
+        <v>122.8</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1057,10 +1059,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>121.3</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1069,10 +1071,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B51" t="n">
-        <v>120</v>
+        <v>44197</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>121.3</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1081,13 +1083,25 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B52" t="n">
-        <v>119.5</v>
+        <v>120</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B53" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/ppi.xlsx
+++ b/data/ppi.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147.95</v>
+        <v>147.46</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -494,23 +494,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>147.95</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>147.72</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B4" t="n">
-        <v>146.84</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -519,10 +521,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>146.52</v>
+        <v>45627</v>
+      </c>
+      <c r="B5" t="n">
+        <v>146.84</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -531,10 +533,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>145.97</v>
+        <v>146.52</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -543,10 +545,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>145.65</v>
+        <v>145.97</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -555,10 +557,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>145.33</v>
+        <v>145.65</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -567,10 +569,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>144.88</v>
+        <v>145.33</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -579,10 +581,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>144.83</v>
+        <v>144.88</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -591,10 +593,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>144.26</v>
+        <v>144.83</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -603,7 +605,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>144.26</v>
@@ -615,10 +617,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>143.54</v>
+        <v>144.26</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -627,10 +629,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>143.51</v>
+        <v>143.54</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -639,10 +641,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>142.68</v>
+        <v>143.51</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -651,10 +653,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>142.17</v>
+        <v>142.68</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -663,10 +665,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>142.27</v>
+        <v>142.17</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -675,10 +677,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>142.19</v>
+        <v>142.27</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -687,10 +689,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>142.66</v>
+        <v>142.19</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -699,10 +701,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>142.35</v>
+        <v>142.66</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -711,10 +713,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>141.46</v>
+        <v>142.35</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -723,10 +725,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>140.67</v>
+        <v>141.46</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -735,10 +737,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>140.66</v>
+        <v>140.67</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -747,10 +749,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>140.98</v>
+        <v>140.66</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -759,10 +761,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>140.74</v>
+        <v>140.98</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -771,10 +773,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>141.24</v>
+        <v>140.74</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -783,10 +785,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>141.29</v>
+        <v>141.24</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -795,10 +797,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>140.7</v>
+        <v>141.29</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -807,10 +809,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>141.18</v>
+        <v>140.7</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -819,10 +821,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>140.67</v>
+        <v>141.18</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -831,10 +833,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>140.14</v>
+        <v>140.67</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -843,10 +845,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>139.72</v>
+        <v>140.14</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -855,10 +857,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>139.84</v>
+        <v>139.72</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -867,10 +869,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>140.24</v>
+        <v>139.84</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -879,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>139.03</v>
+        <v>140.24</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -891,10 +893,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>137.8</v>
+        <v>139.03</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -903,10 +905,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>137.04</v>
+        <v>137.8</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -915,10 +917,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>134.82</v>
+        <v>137.04</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -927,10 +929,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>133.58</v>
+        <v>134.82</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -939,10 +941,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>132.24</v>
+        <v>133.58</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -951,10 +953,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>131.45</v>
+        <v>132.24</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -963,10 +965,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>130.03</v>
+        <v>131.45</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -975,10 +977,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>129.21</v>
+        <v>130.03</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -987,10 +989,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>128.61</v>
+        <v>129.21</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -999,10 +1001,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>127.45</v>
+        <v>128.61</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1011,10 +1013,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>126.2</v>
+        <v>127.45</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1023,10 +1025,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>125.2</v>
+        <v>126.2</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1035,10 +1037,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>124.1</v>
+        <v>125.2</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1047,10 +1049,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>122.8</v>
+        <v>124.1</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1059,10 +1061,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>122</v>
+        <v>122.8</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1071,10 +1073,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>121.3</v>
+        <v>122</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1083,10 +1085,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B52" t="n">
-        <v>120</v>
+        <v>44197</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>121.3</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1095,13 +1097,25 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B53" t="n">
-        <v>119.5</v>
+        <v>120</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B54" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/ppi.xlsx
+++ b/data/ppi.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147.46</v>
+        <v>147.68</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -494,11 +494,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.95</v>
+        <v>147.46</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -508,23 +508,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>147.95</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>147.72</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B5" t="n">
-        <v>146.84</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -533,10 +535,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>146.52</v>
+        <v>45627</v>
+      </c>
+      <c r="B6" t="n">
+        <v>146.84</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -545,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>145.97</v>
+        <v>146.52</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -557,10 +559,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>145.65</v>
+        <v>145.97</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -569,10 +571,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>145.33</v>
+        <v>145.65</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -581,10 +583,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>144.88</v>
+        <v>145.33</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -593,10 +595,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>144.83</v>
+        <v>144.88</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -605,10 +607,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>144.26</v>
+        <v>144.83</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -617,7 +619,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>144.26</v>
@@ -629,10 +631,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>143.54</v>
+        <v>144.26</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -641,10 +643,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>143.51</v>
+        <v>143.54</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -653,10 +655,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>142.68</v>
+        <v>143.51</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -665,10 +667,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>142.17</v>
+        <v>142.68</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -677,10 +679,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>142.27</v>
+        <v>142.17</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -689,10 +691,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>142.19</v>
+        <v>142.27</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -701,10 +703,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>142.66</v>
+        <v>142.19</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -713,10 +715,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>142.35</v>
+        <v>142.66</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -725,10 +727,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>141.46</v>
+        <v>142.35</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -737,10 +739,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>140.67</v>
+        <v>141.46</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -749,10 +751,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>140.66</v>
+        <v>140.67</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -761,10 +763,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>140.98</v>
+        <v>140.66</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -773,10 +775,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>140.74</v>
+        <v>140.98</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -785,10 +787,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>141.24</v>
+        <v>140.74</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -797,10 +799,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>141.29</v>
+        <v>141.24</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -809,10 +811,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>140.7</v>
+        <v>141.29</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -821,10 +823,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>141.18</v>
+        <v>140.7</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -833,10 +835,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>140.67</v>
+        <v>141.18</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -845,10 +847,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>140.14</v>
+        <v>140.67</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -857,10 +859,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>139.72</v>
+        <v>140.14</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -869,10 +871,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>139.84</v>
+        <v>139.72</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -881,10 +883,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>140.24</v>
+        <v>139.84</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -893,10 +895,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>139.03</v>
+        <v>140.24</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -905,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>137.8</v>
+        <v>139.03</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -917,10 +919,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>137.04</v>
+        <v>137.8</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -929,10 +931,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>134.82</v>
+        <v>137.04</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -941,10 +943,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>133.58</v>
+        <v>134.82</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -953,10 +955,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>132.24</v>
+        <v>133.58</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -965,10 +967,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>131.45</v>
+        <v>132.24</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -977,10 +979,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>130.03</v>
+        <v>131.45</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -989,10 +991,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>129.21</v>
+        <v>130.03</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1001,10 +1003,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>128.61</v>
+        <v>129.21</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1013,10 +1015,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>127.45</v>
+        <v>128.61</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1025,10 +1027,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>126.2</v>
+        <v>127.45</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1037,10 +1039,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>125.2</v>
+        <v>126.2</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1049,10 +1051,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>124.1</v>
+        <v>125.2</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1061,10 +1063,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>122.8</v>
+        <v>124.1</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1073,10 +1075,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>122</v>
+        <v>122.8</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1085,10 +1087,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>121.3</v>
+        <v>122</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1097,10 +1099,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B53" t="n">
-        <v>120</v>
+        <v>44197</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>121.3</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1109,13 +1111,25 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B54" t="n">
-        <v>119.5</v>
+        <v>120</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B55" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/ppi.xlsx
+++ b/data/ppi.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147.68</v>
+        <v>148.07</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -494,11 +494,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.46</v>
+        <v>147.68</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -508,11 +508,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.95</v>
+        <v>147.46</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -522,23 +522,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>147.95</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>147.72</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B6" t="n">
-        <v>146.84</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -547,10 +549,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>146.52</v>
+        <v>45627</v>
+      </c>
+      <c r="B7" t="n">
+        <v>146.84</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -559,10 +561,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>145.97</v>
+        <v>146.52</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -571,10 +573,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>145.65</v>
+        <v>145.97</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -583,10 +585,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>145.33</v>
+        <v>145.65</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -595,10 +597,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>144.88</v>
+        <v>145.33</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -607,10 +609,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>144.83</v>
+        <v>144.88</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -619,10 +621,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>144.26</v>
+        <v>144.83</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -631,7 +633,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>144.26</v>
@@ -643,10 +645,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>143.54</v>
+        <v>144.26</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -655,10 +657,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>143.51</v>
+        <v>143.54</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -667,10 +669,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>142.68</v>
+        <v>143.51</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -679,10 +681,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>142.17</v>
+        <v>142.68</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -691,10 +693,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>142.27</v>
+        <v>142.17</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -703,10 +705,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>142.19</v>
+        <v>142.27</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -715,10 +717,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>142.66</v>
+        <v>142.19</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -727,10 +729,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>142.35</v>
+        <v>142.66</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -739,10 +741,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>141.46</v>
+        <v>142.35</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -751,10 +753,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>140.67</v>
+        <v>141.46</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -763,10 +765,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>140.66</v>
+        <v>140.67</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -775,10 +777,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>140.98</v>
+        <v>140.66</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -787,10 +789,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>140.74</v>
+        <v>140.98</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -799,10 +801,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>141.24</v>
+        <v>140.74</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -811,10 +813,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>141.29</v>
+        <v>141.24</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -823,10 +825,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>140.7</v>
+        <v>141.29</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -835,10 +837,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>141.18</v>
+        <v>140.7</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -847,10 +849,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>140.67</v>
+        <v>141.18</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -859,10 +861,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>140.14</v>
+        <v>140.67</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -871,10 +873,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>139.72</v>
+        <v>140.14</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -883,10 +885,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>139.84</v>
+        <v>139.72</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -895,10 +897,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>140.24</v>
+        <v>139.84</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -907,10 +909,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>139.03</v>
+        <v>140.24</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -919,10 +921,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>137.8</v>
+        <v>139.03</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -931,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>137.04</v>
+        <v>137.8</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -943,10 +945,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>134.82</v>
+        <v>137.04</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -955,10 +957,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>133.58</v>
+        <v>134.82</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -967,10 +969,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>132.24</v>
+        <v>133.58</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -979,10 +981,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>131.45</v>
+        <v>132.24</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -991,10 +993,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>130.03</v>
+        <v>131.45</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1003,10 +1005,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>129.21</v>
+        <v>130.03</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1015,10 +1017,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>128.61</v>
+        <v>129.21</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1027,10 +1029,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>127.45</v>
+        <v>128.61</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1039,10 +1041,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>126.2</v>
+        <v>127.45</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1051,10 +1053,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>125.2</v>
+        <v>126.2</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1063,10 +1065,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>124.1</v>
+        <v>125.2</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1075,10 +1077,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>122.8</v>
+        <v>124.1</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1087,10 +1089,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>122</v>
+        <v>122.8</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1099,10 +1101,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>121.3</v>
+        <v>122</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1111,10 +1113,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B54" t="n">
-        <v>120</v>
+        <v>44197</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>121.3</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1123,13 +1125,25 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B55" t="n">
-        <v>119.5</v>
+        <v>120</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B56" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/ppi.xlsx
+++ b/data/ppi.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,593 +479,606 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148.07</v>
+        <v>149.67</v>
       </c>
       <c r="C2" t="n">
-        <v>2.64</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.68</v>
+        <v>148.07</v>
       </c>
       <c r="C3" t="n">
-        <v>2.37</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.46</v>
+        <v>147.68</v>
       </c>
       <c r="C4" t="n">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.95</v>
+        <v>147.46</v>
       </c>
       <c r="C5" t="n">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>147.95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>147.72</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3.53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B7" t="n">
-        <v>146.84</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>146.52</v>
+        <v>45627</v>
+      </c>
+      <c r="B8" t="n">
+        <v>146.84</v>
       </c>
       <c r="C8" t="n">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>145.97</v>
+        <v>146.52</v>
       </c>
       <c r="C9" t="n">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>145.65</v>
+        <v>145.97</v>
       </c>
       <c r="C10" t="n">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>145.33</v>
+        <v>145.65</v>
       </c>
       <c r="C11" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>144.88</v>
+        <v>145.33</v>
       </c>
       <c r="C12" t="n">
-        <v>2.42</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>144.83</v>
+        <v>144.88</v>
       </c>
       <c r="C13" t="n">
-        <v>2.96</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>144.26</v>
+        <v>144.83</v>
       </c>
       <c r="C14" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>144.26</v>
       </c>
       <c r="C15" t="n">
-        <v>2.33</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>143.54</v>
+        <v>144.26</v>
       </c>
       <c r="C16" t="n">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>143.51</v>
+        <v>143.54</v>
       </c>
       <c r="C17" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>142.68</v>
+        <v>143.51</v>
       </c>
       <c r="C18" t="n">
-        <v>0.98</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>142.17</v>
+        <v>142.68</v>
       </c>
       <c r="C19" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>142.27</v>
+        <v>142.17</v>
       </c>
       <c r="C20" t="n">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>142.19</v>
+        <v>142.27</v>
       </c>
       <c r="C21" t="n">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>142.66</v>
+        <v>142.19</v>
       </c>
       <c r="C22" t="n">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>142.35</v>
+        <v>142.66</v>
       </c>
       <c r="C23" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>141.46</v>
+        <v>142.35</v>
       </c>
       <c r="C24" t="n">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>140.67</v>
+        <v>141.46</v>
       </c>
       <c r="C25" t="n">
-        <v>0.31</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>140.66</v>
+        <v>140.67</v>
       </c>
       <c r="C26" t="n">
-        <v>1.17</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>140.98</v>
+        <v>140.66</v>
       </c>
       <c r="C27" t="n">
-        <v>2.31</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>140.74</v>
+        <v>140.98</v>
       </c>
       <c r="C28" t="n">
-        <v>2.7</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>141.24</v>
+        <v>140.74</v>
       </c>
       <c r="C29" t="n">
-        <v>4.76</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>141.29</v>
+        <v>141.24</v>
       </c>
       <c r="C30" t="n">
-        <v>5.77</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>140.7</v>
+        <v>141.29</v>
       </c>
       <c r="C31" t="n">
-        <v>6.4</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>141.18</v>
+        <v>140.7</v>
       </c>
       <c r="C32" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>140.67</v>
+        <v>141.18</v>
       </c>
       <c r="C33" t="n">
-        <v>8.18</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>140.14</v>
+        <v>140.67</v>
       </c>
       <c r="C34" t="n">
-        <v>8.460000000000001</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>139.72</v>
+        <v>140.14</v>
       </c>
       <c r="C35" t="n">
-        <v>8.640000000000001</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>139.84</v>
+        <v>139.72</v>
       </c>
       <c r="C36" t="n">
-        <v>9.720000000000001</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>140.24</v>
+        <v>139.84</v>
       </c>
       <c r="C37" t="n">
-        <v>11.13</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>139.03</v>
+        <v>140.24</v>
       </c>
       <c r="C38" t="n">
-        <v>11.05</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>137.8</v>
+        <v>139.03</v>
       </c>
       <c r="C39" t="n">
-        <v>11.04</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>137.04</v>
+        <v>137.8</v>
       </c>
       <c r="C40" t="n">
-        <v>11.6</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>134.82</v>
+        <v>137.04</v>
       </c>
       <c r="C41" t="n">
-        <v>10.51</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>133.58</v>
+        <v>134.82</v>
       </c>
       <c r="C42" t="n">
-        <v>10.12</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>132.24</v>
+        <v>133.58</v>
       </c>
       <c r="C43" t="n">
-        <v>10.2</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>131.45</v>
+        <v>132.24</v>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>130.03</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>131.45</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>129.21</v>
+        <v>130.03</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>128.61</v>
+        <v>129.21</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>127.45</v>
+        <v>128.61</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>126.2</v>
+        <v>127.45</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>125.2</v>
+        <v>126.2</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>124.1</v>
+        <v>125.2</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>122.8</v>
+        <v>124.1</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>122</v>
+        <v>122.8</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>121.3</v>
+        <v>122</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B55" t="n">
-        <v>120</v>
+        <v>44197</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>121.3</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B56" t="n">
+        <v>120</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B57" t="n">
         <v>119.5</v>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ppi.xlsx
+++ b/data/ppi.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,606 +479,619 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.67</v>
+        <v>149.16</v>
       </c>
       <c r="C2" t="n">
-        <v>3.34</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.07</v>
+        <v>149.67</v>
       </c>
       <c r="C3" t="n">
-        <v>2.64</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.68</v>
+        <v>148.07</v>
       </c>
       <c r="C4" t="n">
-        <v>2.37</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.46</v>
+        <v>147.68</v>
       </c>
       <c r="C5" t="n">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.95</v>
+        <v>147.46</v>
       </c>
       <c r="C6" t="n">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>147.95</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>147.72</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3.53</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B8" t="n">
-        <v>146.84</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>146.52</v>
+        <v>45627</v>
+      </c>
+      <c r="B9" t="n">
+        <v>146.84</v>
       </c>
       <c r="C9" t="n">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>145.97</v>
+        <v>146.52</v>
       </c>
       <c r="C10" t="n">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>145.65</v>
+        <v>145.97</v>
       </c>
       <c r="C11" t="n">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>145.33</v>
+        <v>145.65</v>
       </c>
       <c r="C12" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>144.88</v>
+        <v>145.33</v>
       </c>
       <c r="C13" t="n">
-        <v>2.42</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>144.83</v>
+        <v>144.88</v>
       </c>
       <c r="C14" t="n">
-        <v>2.96</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>144.26</v>
+        <v>144.83</v>
       </c>
       <c r="C15" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>144.26</v>
       </c>
       <c r="C16" t="n">
-        <v>2.33</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>143.54</v>
+        <v>144.26</v>
       </c>
       <c r="C17" t="n">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>143.51</v>
+        <v>143.54</v>
       </c>
       <c r="C18" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>142.68</v>
+        <v>143.51</v>
       </c>
       <c r="C19" t="n">
-        <v>0.98</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>142.17</v>
+        <v>142.68</v>
       </c>
       <c r="C20" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>142.27</v>
+        <v>142.17</v>
       </c>
       <c r="C21" t="n">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>142.19</v>
+        <v>142.27</v>
       </c>
       <c r="C22" t="n">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>142.66</v>
+        <v>142.19</v>
       </c>
       <c r="C23" t="n">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>142.35</v>
+        <v>142.66</v>
       </c>
       <c r="C24" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>141.46</v>
+        <v>142.35</v>
       </c>
       <c r="C25" t="n">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>140.67</v>
+        <v>141.46</v>
       </c>
       <c r="C26" t="n">
-        <v>0.31</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>140.66</v>
+        <v>140.67</v>
       </c>
       <c r="C27" t="n">
-        <v>1.17</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>140.98</v>
+        <v>140.66</v>
       </c>
       <c r="C28" t="n">
-        <v>2.31</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>140.74</v>
+        <v>140.98</v>
       </c>
       <c r="C29" t="n">
-        <v>2.7</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>141.24</v>
+        <v>140.74</v>
       </c>
       <c r="C30" t="n">
-        <v>4.76</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>141.29</v>
+        <v>141.24</v>
       </c>
       <c r="C31" t="n">
-        <v>5.77</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>140.7</v>
+        <v>141.29</v>
       </c>
       <c r="C32" t="n">
-        <v>6.4</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>141.18</v>
+        <v>140.7</v>
       </c>
       <c r="C33" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>140.67</v>
+        <v>141.18</v>
       </c>
       <c r="C34" t="n">
-        <v>8.18</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>140.14</v>
+        <v>140.67</v>
       </c>
       <c r="C35" t="n">
-        <v>8.460000000000001</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>139.72</v>
+        <v>140.14</v>
       </c>
       <c r="C36" t="n">
-        <v>8.640000000000001</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>139.84</v>
+        <v>139.72</v>
       </c>
       <c r="C37" t="n">
-        <v>9.720000000000001</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>140.24</v>
+        <v>139.84</v>
       </c>
       <c r="C38" t="n">
-        <v>11.13</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>139.03</v>
+        <v>140.24</v>
       </c>
       <c r="C39" t="n">
-        <v>11.05</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>137.8</v>
+        <v>139.03</v>
       </c>
       <c r="C40" t="n">
-        <v>11.04</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>137.04</v>
+        <v>137.8</v>
       </c>
       <c r="C41" t="n">
-        <v>11.6</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>134.82</v>
+        <v>137.04</v>
       </c>
       <c r="C42" t="n">
-        <v>10.51</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>133.58</v>
+        <v>134.82</v>
       </c>
       <c r="C43" t="n">
-        <v>10.12</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>132.24</v>
+        <v>133.58</v>
       </c>
       <c r="C44" t="n">
-        <v>10.2</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>131.45</v>
+        <v>132.24</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>130.03</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>131.45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>129.21</v>
+        <v>130.03</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>128.61</v>
+        <v>129.21</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>127.45</v>
+        <v>128.61</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>126.2</v>
+        <v>127.45</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>125.2</v>
+        <v>126.2</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>124.1</v>
+        <v>125.2</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>122.8</v>
+        <v>124.1</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>122</v>
+        <v>122.8</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>121.3</v>
+        <v>122</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B56" t="n">
-        <v>120</v>
+        <v>44197</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>121.3</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B57" t="n">
+        <v>120</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B58" t="n">
         <v>119.5</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
